--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-10769_Binding_Test_Tables.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-10769_Binding_Test_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diana\.openl\user-workspace\DEFAULT\test1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8390BC-98B5-44EA-B6A0-805AD4368B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F3ACB3-657B-46F3-B362-DA8EB9E40242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="1410" windowWidth="22080" windowHeight="12990" xr2:uid="{121C95DA-9E03-40E1-ACB0-FFEFA2DDA280}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{121C95DA-9E03-40E1-ACB0-FFEFA2DDA280}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>Rules Double  MyRule7 (Double param1, Double param2, Double param3)</t>
-  </si>
-  <si>
     <t>Test MyRule7</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   <si>
     <t xml:space="preserve">DoubleValue  </t>
   </si>
+  <si>
+    <t>Rules DoubleValue  MyRule7 (Double param1, Double param2, Double param3)</t>
+  </si>
 </sst>
 </file>
 
@@ -216,8 +216,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -820,7 +820,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -839,1881 +839,1881 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="13" fillId="23" borderId="0">
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="23" borderId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="35" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="35" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="4" borderId="0"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="36" fillId="4" borderId="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="37" fillId="0" borderId="4"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="4"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="30" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="31" fillId="28" borderId="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="28" borderId="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -3592,7 +3592,6 @@
     <cellStyle name="Neutral 7" xfId="885" xr:uid="{0A02A4F1-0077-4C0E-94C4-B02FE9FAB35C}"/>
     <cellStyle name="Neutral 8" xfId="886" xr:uid="{F61D9CBD-28BE-4B2C-8259-471ACB12736D}"/>
     <cellStyle name="Neutral 9" xfId="887" xr:uid="{DCE40F44-DDA9-4F11-8F24-CA67EC781771}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="888" xr:uid="{D4178EE7-23A9-45FB-9924-09B19E21C594}"/>
     <cellStyle name="Normal 11" xfId="889" xr:uid="{927AFF94-206A-4915-A770-DB2E05A00857}"/>
     <cellStyle name="Normal 12" xfId="890" xr:uid="{44991DA5-78C3-4643-850A-3B7991B8BA1B}"/>
@@ -4603,6 +4602,7 @@
     <cellStyle name="Warning Text 8" xfId="1883" xr:uid="{F79EDBA9-8477-47B1-B336-D5D0513D4656}"/>
     <cellStyle name="Warning Text 9" xfId="1884" xr:uid="{D688D107-CA68-457A-A6D6-D69A21133911}"/>
     <cellStyle name="Гиперссылка 2" xfId="17" xr:uid="{37CCEFBB-113A-4E9C-A568-7EE0E5B7D3CE}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="18" xr:uid="{96999352-A6E9-46CA-9C78-7367A5386A5F}"/>
     <cellStyle name="Обычный 2 2" xfId="19" xr:uid="{EF5AAA0C-4680-4B55-925C-8163A1FB49B6}"/>
     <cellStyle name="Обычный 3" xfId="20" xr:uid="{41D706D9-D358-429F-ACF6-FFBB74A7B546}"/>
@@ -4627,9 +4627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4667,7 +4667,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4773,7 +4773,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4925,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AC155-EE7E-442B-97DD-276F3B80218B}">
   <dimension ref="B2:W83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5926,19 +5926,19 @@
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="T68" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -6013,7 +6013,7 @@
         <v>39</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>39</v>
@@ -6025,7 +6025,7 @@
         <v>39</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="O71" s="2"/>
       <c r="T71" s="2">
@@ -6111,33 +6111,33 @@
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="T78" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C79" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -6185,7 +6185,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6193,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -6210,17 +6210,17 @@
     </row>
     <row r="82" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" s="2"/>
       <c r="K82" t="s">
         <v>6</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -6230,10 +6230,10 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="K83" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
